--- a/spreadsheets/Nasus.xlsx
+++ b/spreadsheets/Nasus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E650CF8-696A-45A5-B513-46E5E1C952A3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68597189-15AD-4EF0-8492-794C9B0A7CC8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30705" yWindow="2070" windowWidth="21525" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31920" yWindow="3600" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -347,9 +347,6 @@
     <t>Shen</t>
   </si>
   <si>
-    <t>surprisingly high damage, he will help his team after levle 6 so try to get gold from plates + a lot of stacks</t>
-  </si>
-  <si>
     <t>Singed</t>
   </si>
   <si>
@@ -363,9 +360,6 @@
   </si>
   <si>
     <t>Swain</t>
-  </si>
-  <si>
-    <t>he doesnt have that much damage, so farm and try to kill him after level 7 + sheen. you have to get good amount of stacks tho, he is tanky</t>
   </si>
   <si>
     <t>Sylas</t>
@@ -417,7 +411,13 @@
 </t>
   </si>
   <si>
-    <t>https://i.imgur.com/OHNM0Fl.jpg</t>
+    <t>surprisingly high damage, he will help his team after level 6 so try to get gold from plates + a lot of stacks</t>
+  </si>
+  <si>
+    <t>he doesn't have that much damage, so farm and try to kill him after level 7 + sheen. you have to get good amount of stacks though, he is tanky</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/K7PLwiG.jpg</t>
   </si>
 </sst>
 </file>
@@ -778,8 +778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1899,7 +1899,7 @@
     <hyperlink ref="B5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="B6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{CE854D48-E468-42C1-A586-C3C6CF624C0A}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{DC94B8B2-3E2D-413B-BFC8-1B9456B09046}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -1911,8 +1911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2311,128 +2311,128 @@
         <v>8</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="3">
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="3">
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B36" s="3">
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B37" s="4">
         <v>7</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="4">
         <v>9</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="4">
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" s="4">
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="4">
         <v>9</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" s="3">
         <v>8</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" s="4">
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B44" s="3">
         <v>8</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
